--- a/input_folder/data.xlsx
+++ b/input_folder/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chernenko/py3/pdf_editor/input_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A99FEF2-79E5-1045-ACE3-40A3B2925DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B8141E-9377-D043-BE0E-4C21680E82C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{AB1C9EE7-8870-764C-A600-3485476D3C41}"/>
   </bookViews>
@@ -49,10 +49,10 @@
     <t>571-1094069</t>
   </si>
   <si>
-    <t>Yodi Christian</t>
-  </si>
-  <si>
-    <t>Nurwati</t>
+    <t>Yodi</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/input_folder/data.xlsx
+++ b/input_folder/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chernenko/py3/pdf_editor/input_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B8141E-9377-D043-BE0E-4C21680E82C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863A5519-1785-4D48-8AA0-6480CDCFC535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{AB1C9EE7-8870-764C-A600-3485476D3C41}"/>
   </bookViews>
@@ -52,7 +52,7 @@
     <t>Yodi</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Nurwati</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
